--- a/点検報告書/心電図 点検報告書 org.xlsx
+++ b/点検報告書/心電図 点検報告書 org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamas\Desktop\Programming\Streamlit\report_app\点検報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AB03A8-1310-4C9E-82DE-2392A71A5C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8CF90-CA67-4372-BC7F-BFE69A95F5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{98B9417B-430B-4079-92A6-5FCAEA3AD8D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>製造番号</t>
     <rPh sb="0" eb="2">
@@ -279,26 +279,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>：500μA以下      （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：100μA以下      （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：5,000μA以下   （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：0.2Ω以下         （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：10,000μA以下 （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>μA）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -348,6 +328,33 @@
     <rPh sb="9" eb="11">
       <t>ハソン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗値</t>
+    <rPh sb="0" eb="3">
+      <t>テイコウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：     100 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：     500 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：  5,000 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：10,000 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：      0.2   Ω以下（</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -664,9 +671,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -684,6 +688,15 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -791,13 +804,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,7 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B38E942-09E3-4432-B315-9F85F1F1FB07}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="68" zoomScaleNormal="72" zoomScaleSheetLayoutView="63" zoomScalePageLayoutView="68" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="72" zoomScaleSheetLayoutView="63" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:H3"/>
     </sheetView>
   </sheetViews>
@@ -1210,39 +1217,39 @@
     <col min="3" max="3" width="19.0625" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="8.4375" customWidth="1"/>
-    <col min="6" max="6" width="4.3125" customWidth="1"/>
+    <col min="6" max="6" width="6.4375" customWidth="1"/>
     <col min="7" max="7" width="5.9375" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="47"/>
@@ -1260,64 +1267,64 @@
       <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
@@ -1336,226 +1343,228 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="26"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="26"/>
+      <c r="B13" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="26"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="26"/>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="24"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="24"/>
-      <c r="B13" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="24"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="18"/>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A18" s="18"/>
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A19" s="19"/>
+      <c r="B19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="24"/>
-      <c r="B15" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="9" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A21" s="18"/>
+      <c r="B21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A22" s="18"/>
+      <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="16"/>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="16"/>
-      <c r="B18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="17"/>
-      <c r="B19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="16"/>
-      <c r="B21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="16"/>
-      <c r="B22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="154.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="24"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="31" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="6"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="35">
+  <mergeCells count="34">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
@@ -1563,7 +1572,6 @@
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B10:G10"/>
@@ -1637,23 +1645,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4d66f4d8-3943-4759-9a98-bc10ca003b28" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010089024CFADDEFFF488F6BBE4C7987FE45" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="0a9d4294e1387469a4de8b5834f554cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4d66f4d8-3943-4759-9a98-bc10ca003b28" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70d5ae3300a9727b51fe24adf4013678" ns3:_="">
     <xsd:import namespace="4d66f4d8-3943-4759-9a98-bc10ca003b28"/>
@@ -1817,31 +1808,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25864A23-2F60-4A49-93F9-7EEA574FE90A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D50C3F-C20B-42D1-9303-820AB1AA369F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4d66f4d8-3943-4759-9a98-bc10ca003b28"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4d66f4d8-3943-4759-9a98-bc10ca003b28" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0627A6F2-A149-40DB-B65B-37FDA54BBAA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1857,4 +1841,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25864A23-2F60-4A49-93F9-7EEA574FE90A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D50C3F-C20B-42D1-9303-820AB1AA369F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4d66f4d8-3943-4759-9a98-bc10ca003b28"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/点検報告書/心電図 点検報告書 org.xlsx
+++ b/点検報告書/心電図 点検報告書 org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamas\Desktop\Programming\Streamlit\report_app\点検報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8CF90-CA67-4372-BC7F-BFE69A95F5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDAF130-74E2-4A09-9C48-3FECA8136AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{98B9417B-430B-4079-92A6-5FCAEA3AD8D6}"/>
   </bookViews>
@@ -697,12 +697,97 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -739,91 +824,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1217,145 +1217,145 @@
     <col min="3" max="3" width="19.0625" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="8.4375" customWidth="1"/>
-    <col min="6" max="6" width="6.4375" customWidth="1"/>
+    <col min="6" max="6" width="7.1875" customWidth="1"/>
     <col min="7" max="7" width="5.9375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="12.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="6"/>
       <c r="G11" s="3" t="s">
         <v>24</v>
@@ -1363,15 +1363,15 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="26"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="6"/>
       <c r="G12" s="3" t="s">
         <v>24</v>
@@ -1379,17 +1379,17 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="26"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="6"/>
       <c r="G13" s="3" t="s">
         <v>24</v>
@@ -1397,15 +1397,15 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="26"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="6"/>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1413,17 +1413,17 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="26"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="6"/>
       <c r="G15" s="3" t="s">
         <v>25</v>
@@ -1431,95 +1431,95 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="19"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="18"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="27"/>
@@ -1531,7 +1531,7 @@
       <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="154.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="26"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -1541,20 +1541,20 @@
       <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="33" t="s">
         <v>14</v>
       </c>
@@ -1565,24 +1565,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="34">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:H24"/>
-    <mergeCell ref="E26:G26"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B22:G22"/>
@@ -1599,6 +1581,24 @@
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="B18:G18"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:H24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B5:B8 E8">
@@ -1645,6 +1645,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4d66f4d8-3943-4759-9a98-bc10ca003b28" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010089024CFADDEFFF488F6BBE4C7987FE45" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="0a9d4294e1387469a4de8b5834f554cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4d66f4d8-3943-4759-9a98-bc10ca003b28" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70d5ae3300a9727b51fe24adf4013678" ns3:_="">
     <xsd:import namespace="4d66f4d8-3943-4759-9a98-bc10ca003b28"/>
@@ -1808,24 +1825,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D50C3F-C20B-42D1-9303-820AB1AA369F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4d66f4d8-3943-4759-9a98-bc10ca003b28"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4d66f4d8-3943-4759-9a98-bc10ca003b28" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25864A23-2F60-4A49-93F9-7EEA574FE90A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0627A6F2-A149-40DB-B65B-37FDA54BBAA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1841,28 +1865,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25864A23-2F60-4A49-93F9-7EEA574FE90A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D50C3F-C20B-42D1-9303-820AB1AA369F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4d66f4d8-3943-4759-9a98-bc10ca003b28"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>